--- a/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - mikey.xlsx
+++ b/6044_FramPat/SAM/Robotron 2084/Sprite map/sprite - mikey.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED819D5-BFC2-4156-8B49-CED6BE32A595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="32">
   <si>
     <t>B</t>
   </si>
@@ -78,12 +77,48 @@
   <si>
     <t>g</t>
   </si>
+  <si>
+    <t>mikey1</t>
+  </si>
+  <si>
+    <t>mikey2</t>
+  </si>
+  <si>
+    <t>mikey3</t>
+  </si>
+  <si>
+    <t>mikey4</t>
+  </si>
+  <si>
+    <t>mikey5</t>
+  </si>
+  <si>
+    <t>mikey6</t>
+  </si>
+  <si>
+    <t>mikey7</t>
+  </si>
+  <si>
+    <t>mikey8</t>
+  </si>
+  <si>
+    <t>mikey9</t>
+  </si>
+  <si>
+    <t>mikey10</t>
+  </si>
+  <si>
+    <t>mikey11</t>
+  </si>
+  <si>
+    <t>mikey12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,7 +309,7 @@
         <xdr:cNvPr id="13" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -320,7 +355,7 @@
         <xdr:cNvPr id="1030" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -366,7 +401,7 @@
         <xdr:cNvPr id="1032" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -412,7 +447,7 @@
         <xdr:cNvPr id="1034" name="Picture 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -458,7 +493,7 @@
         <xdr:cNvPr id="1036" name="Picture 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -504,7 +539,7 @@
         <xdr:cNvPr id="1038" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -536,13 +571,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>32845</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>30394</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>157655</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -550,7 +585,7 @@
         <xdr:cNvPr id="1040" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -582,13 +617,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>45982</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>177362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>52685</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>170793</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -596,7 +631,7 @@
         <xdr:cNvPr id="1042" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -628,13 +663,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>13138</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>183931</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>40</xdr:col>
       <xdr:colOff>26699</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>183931</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -642,7 +677,7 @@
         <xdr:cNvPr id="1044" name="Picture 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -674,13 +709,13 @@
     <xdr:from>
       <xdr:col>48</xdr:col>
       <xdr:colOff>6570</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>170792</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
       <xdr:colOff>21683</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>144516</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -688,7 +723,7 @@
         <xdr:cNvPr id="1046" name="Picture 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -720,13 +755,13 @@
     <xdr:from>
       <xdr:col>61</xdr:col>
       <xdr:colOff>19706</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>170793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>66</xdr:col>
       <xdr:colOff>12871</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>164224</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -734,7 +769,7 @@
         <xdr:cNvPr id="1048" name="Picture 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -766,13 +801,13 @@
     <xdr:from>
       <xdr:col>74</xdr:col>
       <xdr:colOff>65689</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>79</xdr:col>
       <xdr:colOff>86106</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>6569</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -780,7 +815,7 @@
         <xdr:cNvPr id="1050" name="Picture 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -812,9 +847,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -852,7 +887,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -886,7 +921,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -921,10 +955,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1097,19 +1130,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CG26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:CG29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BS18" sqref="BS18"/>
+      <selection activeCell="BQ17" sqref="BQ17:BU27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="93" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:85">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -1201,7 +1234,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:85">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1317,7 +1350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:85">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1433,7 +1466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:85">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1549,7 +1582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:85">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1665,7 +1698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:85">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1781,7 +1814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:85">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1897,7 +1930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:85">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2013,7 +2046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:85">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2129,7 +2162,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:85">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2245,7 +2278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:85">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2361,7 +2394,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:85">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2471,1311 +2504,1353 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="B15" s="1">
+    <row r="13" spans="1:85">
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="V13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>23</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>24</v>
+      </c>
+      <c r="BW13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:85">
+      <c r="B16" s="1">
         <v>0</v>
       </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>3</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
         <v>4</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P16" s="1">
         <v>0</v>
       </c>
-      <c r="Q15" s="1">
-        <v>1</v>
-      </c>
-      <c r="R15" s="1">
-        <v>2</v>
-      </c>
-      <c r="S15" s="1">
-        <v>3</v>
-      </c>
-      <c r="T15" s="1">
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>2</v>
+      </c>
+      <c r="S16" s="1">
+        <v>3</v>
+      </c>
+      <c r="T16" s="1">
         <v>4</v>
       </c>
-      <c r="AD15" s="1">
+      <c r="AD16" s="1">
         <v>0</v>
       </c>
-      <c r="AE15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AG15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AH15" s="1">
+      <c r="AE16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH16" s="1">
         <v>4</v>
       </c>
-      <c r="AQ15" s="1">
+      <c r="AQ16" s="1">
         <v>0</v>
       </c>
-      <c r="AR15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AS15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AT15" s="1">
-        <v>3</v>
-      </c>
-      <c r="AU15" s="1">
+      <c r="AR16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AU16" s="1">
         <v>4</v>
       </c>
-      <c r="BD15" s="1">
+      <c r="BD16" s="1">
         <v>0</v>
       </c>
-      <c r="BE15" s="1">
-        <v>1</v>
-      </c>
-      <c r="BF15" s="1">
-        <v>2</v>
-      </c>
-      <c r="BG15" s="1">
-        <v>3</v>
-      </c>
-      <c r="BH15" s="1">
+      <c r="BE16" s="1">
+        <v>1</v>
+      </c>
+      <c r="BF16" s="1">
+        <v>2</v>
+      </c>
+      <c r="BG16" s="1">
+        <v>3</v>
+      </c>
+      <c r="BH16" s="1">
         <v>4</v>
       </c>
-      <c r="BQ15" s="1">
+      <c r="BQ16" s="1">
         <v>0</v>
       </c>
-      <c r="BR15" s="1">
-        <v>1</v>
-      </c>
-      <c r="BS15" s="1">
-        <v>2</v>
-      </c>
-      <c r="BT15" s="1">
-        <v>3</v>
-      </c>
-      <c r="BU15" s="1">
+      <c r="BR16" s="1">
+        <v>1</v>
+      </c>
+      <c r="BS16" s="1">
+        <v>2</v>
+      </c>
+      <c r="BT16" s="1">
+        <v>3</v>
+      </c>
+      <c r="BU16" s="1">
         <v>4</v>
       </c>
-      <c r="CC15" s="1"/>
-      <c r="CD15" s="1"/>
-      <c r="CE15" s="1"/>
-      <c r="CF15" s="1"/>
-      <c r="CG15" s="1"/>
+      <c r="CC16" s="1"/>
+      <c r="CD16" s="1"/>
+      <c r="CE16" s="1"/>
+      <c r="CF16" s="1"/>
+      <c r="CG16" s="1"/>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:76">
+      <c r="A17">
         <v>0</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O16">
+      <c r="B17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O17">
         <v>0</v>
       </c>
-      <c r="P16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC16">
+      <c r="P17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC17">
         <v>0</v>
       </c>
-      <c r="AD16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP16">
+      <c r="AD17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP17">
         <v>0</v>
       </c>
-      <c r="AQ16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC16">
+      <c r="AQ17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC17">
         <v>0</v>
       </c>
-      <c r="BD16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BF16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BG16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BH16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP16">
+      <c r="BD17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP17">
         <v>0</v>
       </c>
-      <c r="BQ16" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BS16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BT16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BU16" s="4" t="s">
+      <c r="BQ17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BU17" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O17">
-        <v>1</v>
-      </c>
-      <c r="P17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC17">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP17">
-        <v>1</v>
-      </c>
-      <c r="AQ17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC17">
-        <v>1</v>
-      </c>
-      <c r="BD17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BF17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BG17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BH17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP17">
-        <v>1</v>
-      </c>
-      <c r="BQ17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BS17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BT17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BU17" s="4" t="s">
+    <row r="18" spans="1:76">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP18">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC18">
+        <v>1</v>
+      </c>
+      <c r="BD18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP18">
+        <v>1</v>
+      </c>
+      <c r="BQ18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BU18" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O18">
-        <v>2</v>
-      </c>
-      <c r="P18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC18">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP18">
-        <v>2</v>
-      </c>
-      <c r="AQ18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AU18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC18">
-        <v>2</v>
-      </c>
-      <c r="BD18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BF18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BG18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BH18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP18">
-        <v>2</v>
-      </c>
-      <c r="BQ18" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BS18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BT18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BU18" s="4" t="s">
+    <row r="19" spans="1:76">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC19">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AF19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP19">
+        <v>2</v>
+      </c>
+      <c r="AQ19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AU19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC19">
+        <v>2</v>
+      </c>
+      <c r="BD19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BH19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP19">
+        <v>2</v>
+      </c>
+      <c r="BQ19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BS19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BU19" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O19">
-        <v>3</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC19">
-        <v>3</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP19">
-        <v>3</v>
-      </c>
-      <c r="AQ19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AT19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC19">
-        <v>3</v>
-      </c>
-      <c r="BD19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BF19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BG19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP19">
-        <v>3</v>
-      </c>
-      <c r="BQ19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="BT19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BU19" s="4" t="s">
+    <row r="20" spans="1:76">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC20">
+        <v>3</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP20">
+        <v>3</v>
+      </c>
+      <c r="AQ20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC20">
+        <v>3</v>
+      </c>
+      <c r="BD20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP20">
+        <v>3</v>
+      </c>
+      <c r="BQ20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BT20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BU20" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:76">
+      <c r="A21">
         <v>4</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O20">
+      <c r="B21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="O21">
         <v>4</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC20">
+      <c r="P21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC21">
         <v>4</v>
       </c>
-      <c r="AD20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP20">
+      <c r="AD21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP21">
         <v>4</v>
       </c>
-      <c r="AQ20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AR20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC20">
+      <c r="AQ21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AR21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC21">
         <v>4</v>
       </c>
-      <c r="BD20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BP20">
+      <c r="BD21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BP21">
         <v>4</v>
       </c>
-      <c r="BQ20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BR20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BS20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BT20" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BU20" s="2" t="s">
+      <c r="BQ21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BR21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU21" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>5</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21">
-        <v>5</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC21">
-        <v>5</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP21">
-        <v>5</v>
-      </c>
-      <c r="AQ21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC21">
-        <v>5</v>
-      </c>
-      <c r="BD21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BP21">
-        <v>5</v>
-      </c>
-      <c r="BQ21" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BR21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BS21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BT21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BU21" s="2" t="s">
+    <row r="22" spans="1:76">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC22">
+        <v>5</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP22">
+        <v>5</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC22">
+        <v>5</v>
+      </c>
+      <c r="BD22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP22">
+        <v>5</v>
+      </c>
+      <c r="BQ22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT22" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU22" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:76">
+      <c r="A23">
         <v>6</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22">
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23">
         <v>6</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="S22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC22">
+      <c r="P23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC23">
         <v>6</v>
       </c>
-      <c r="AD22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP22">
+      <c r="AD23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP23">
         <v>6</v>
       </c>
-      <c r="AQ22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC22">
+      <c r="AQ23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC23">
         <v>6</v>
       </c>
-      <c r="BD22" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BP22">
+      <c r="BD23" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP23">
         <v>6</v>
       </c>
-      <c r="BQ22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BR22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BS22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BT22" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BU22" s="4" t="s">
+      <c r="BQ23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BT23" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU23" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:76">
+      <c r="A24">
         <v>7</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O23">
+      <c r="B24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O24">
         <v>7</v>
       </c>
-      <c r="P23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC23">
+      <c r="P24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC24">
         <v>7</v>
       </c>
-      <c r="AD23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP23">
+      <c r="AD24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP24">
         <v>7</v>
       </c>
-      <c r="AQ23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC23">
+      <c r="AQ24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC24">
         <v>7</v>
       </c>
-      <c r="BD23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BH23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP23">
+      <c r="BD24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BH24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP24">
         <v>7</v>
       </c>
-      <c r="BQ23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BS23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT23" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BU23" s="4" t="s">
+      <c r="BQ24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BS24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU24" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:76">
+      <c r="A25">
         <v>8</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O24">
+      <c r="B25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O25">
         <v>8</v>
       </c>
-      <c r="P24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC24">
+      <c r="P25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC25">
         <v>8</v>
       </c>
-      <c r="AD24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP24">
+      <c r="AD25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP25">
         <v>8</v>
       </c>
-      <c r="AQ24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AS24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC24">
+      <c r="AQ25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC25">
         <v>8</v>
       </c>
-      <c r="BD24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BH24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BP24">
+      <c r="BD25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP25">
         <v>8</v>
       </c>
-      <c r="BQ24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BR24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BS24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BU24" s="4" t="s">
+      <c r="BQ25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT25" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU25" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="1:76">
+      <c r="A26">
         <v>9</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O25">
+      <c r="B26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26">
         <v>9</v>
       </c>
-      <c r="P25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="R25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC25">
+      <c r="P26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC26">
         <v>9</v>
       </c>
-      <c r="AD25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="AH25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP25">
+      <c r="AD26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP26">
         <v>9</v>
       </c>
-      <c r="AQ25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC25">
+      <c r="AQ26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC26">
         <v>9</v>
       </c>
-      <c r="BD25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP25">
+      <c r="BD26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP26">
         <v>9</v>
       </c>
-      <c r="BQ25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT25" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BU25" s="4" t="s">
+      <c r="BQ26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="BU26" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="27" spans="1:76">
+      <c r="A27">
         <v>10</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="O26">
+      <c r="B27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O27">
         <v>10</v>
       </c>
-      <c r="P26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC26">
+      <c r="P27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC27">
         <v>10</v>
       </c>
-      <c r="AD26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AF26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AG26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP26">
+      <c r="AD27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP27">
         <v>10</v>
       </c>
-      <c r="AQ26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AR26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AS26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="AU26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BC26">
+      <c r="AQ27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AR27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AT27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC27">
         <v>10</v>
       </c>
-      <c r="BD26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BG26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BH26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BP26">
+      <c r="BD27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BH27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BP27">
         <v>10</v>
       </c>
-      <c r="BQ26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BS26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="BT26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="BU26" s="2" t="s">
-        <v>3</v>
+      <c r="BQ27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BS27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU27" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:76">
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:76">
+      <c r="V29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>28</v>
+      </c>
+      <c r="BJ29" t="s">
+        <v>30</v>
+      </c>
+      <c r="BX29" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -3786,24 +3861,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
